--- a/data/raw/obiettiviXSB.xlsx
+++ b/data/raw/obiettiviXSB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\COGEPERF\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47DAF1-33B6-4E62-B4C9-12C3404283F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D13A2B-BA17-415B-9D02-53C85EB8262C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -2582,10 +2582,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB107" sqref="AB107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2714,7 +2715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>134</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>55</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>59</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>60</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>61</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>62</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>63</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>67</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>137</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
@@ -4835,12 +4836,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE92">
         <v>0.76</v>
@@ -4849,7 +4850,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4883,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>138</v>
       </c>
@@ -4907,23 +4908,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK95" xr:uid="{EA4CE77B-7C49-402C-84C0-438D97B82610}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Realizzazione nei tempi e nel target previsto delle misure del PTPCT 2021-2023"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK95" xr:uid="{B0A2CE3E-031D-433A-A719-276AABEBBF6B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5711177-02DE-4FDE-A8A8-FF895E24BB9F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="AE72" sqref="AE72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,7 +5052,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -5145,7 +5141,7 @@
         <v>5.6864999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +5186,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5203,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -5258,7 +5254,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -5297,7 +5293,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5313,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -5344,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -5361,7 +5357,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -5400,7 +5396,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -5420,7 +5416,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -5486,7 +5482,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -5515,7 +5511,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -5562,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>6.6900000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -5742,7 +5738,7 @@
         <v>6.6900000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -5762,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -5823,7 +5819,7 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -5862,7 +5858,7 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -5905,7 +5901,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -5955,7 +5951,7 @@
       </c>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -5972,7 +5968,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -6090,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -6122,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>4.1456999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -6311,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -6350,7 +6346,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -6400,7 +6396,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -6454,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -6474,7 +6470,7 @@
         <v>5.6599999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>134</v>
       </c>
@@ -6494,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -6569,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -6601,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -6628,7 +6624,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -6645,7 +6641,7 @@
       <c r="X49"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -6662,7 +6658,7 @@
       <c r="X50"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -6679,7 +6675,7 @@
       <c r="X51"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -6696,7 +6692,7 @@
       <c r="X52"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -6713,7 +6709,7 @@
       <c r="X53"/>
       <c r="Y53"/>
     </row>
-    <row r="54" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -6730,7 +6726,7 @@
       <c r="X54"/>
       <c r="Y54"/>
     </row>
-    <row r="55" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -6747,7 +6743,7 @@
       <c r="X55"/>
       <c r="Y55"/>
     </row>
-    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -6764,7 +6760,7 @@
       <c r="X56"/>
       <c r="Y56"/>
     </row>
-    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -6781,7 +6777,7 @@
       <c r="X57"/>
       <c r="Y57"/>
     </row>
-    <row r="58" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -6798,7 +6794,7 @@
       <c r="X58"/>
       <c r="Y58"/>
     </row>
-    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
@@ -6894,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -6926,7 +6922,7 @@
         <v>2.5512000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -6958,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -6975,7 +6971,7 @@
       <c r="X64"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
@@ -7007,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -7039,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
@@ -7113,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>55</v>
       </c>
@@ -7145,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
@@ -7162,7 +7158,7 @@
       <c r="X70"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -7354,7 +7350,7 @@
         <v>0.38069999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -7519,7 +7515,7 @@
         <v>1.1693</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>137</v>
       </c>
@@ -7551,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -7634,7 +7630,7 @@
       <c r="X84"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -7718,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -7821,7 +7817,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -7866,7 +7862,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE92">
         <v>8.1216000000000008</v>
@@ -7875,7 +7871,7 @@
         <v>2.4621</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="102" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -7886,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>136</v>
       </c>
@@ -7913,7 +7909,7 @@
         <v>2.3386</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>138</v>
       </c>
@@ -7940,6 +7936,13 @@
       <c r="B96" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK95" xr:uid="{BFE1AC0B-A4ED-477C-B4ED-84B826870D67}">
+    <filterColumn colId="30">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/obiettiviXSB.xlsx
+++ b/data/raw/obiettiviXSB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\COGEPERF\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\coges\programmazione\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D13A2B-BA17-415B-9D02-53C85EB8262C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C47DAF1-33B6-4E62-B4C9-12C3404283F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{4C8D9092-CB5F-465C-9BBB-4ED7945F3EA6}"/>
   </bookViews>
@@ -2582,11 +2582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9953D8-89B6-4839-B835-D84E7CD7D43A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB107" sqref="AB107"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2715,7 +2714,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>134</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>59</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>60</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>62</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>63</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>67</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>137</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4677,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="63" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
@@ -4836,12 +4835,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE92">
         <v>0.76</v>
@@ -4850,7 +4849,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>136</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>138</v>
       </c>
@@ -4908,18 +4907,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK95" xr:uid="{B0A2CE3E-031D-433A-A719-276AABEBBF6B}"/>
+  <autoFilter ref="A1:AK95" xr:uid="{EA4CE77B-7C49-402C-84C0-438D97B82610}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Realizzazione nei tempi e nel target previsto delle misure del PTPCT 2021-2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5711177-02DE-4FDE-A8A8-FF895E24BB9F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE72" sqref="AE72"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,7 +5056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>5.6864999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5207,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5258,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -5293,7 +5297,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -5357,7 +5361,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -5396,7 +5400,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -5482,7 +5486,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -5511,7 +5515,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>6.6900000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>6.6900000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>119</v>
       </c>
@@ -5819,7 +5823,7 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>124</v>
       </c>
@@ -5858,7 +5862,7 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -5901,7 +5905,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -5951,7 +5955,7 @@
       </c>
       <c r="AB27" s="7"/>
     </row>
-    <row r="28" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -5968,7 +5972,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -6054,7 +6058,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
@@ -6086,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>4.1456999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -6346,7 +6350,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>125</v>
       </c>
@@ -6396,7 +6400,7 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>126</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>5.6599999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>134</v>
       </c>
@@ -6490,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>32</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>35</v>
       </c>
@@ -6641,7 +6645,7 @@
       <c r="X49"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
@@ -6658,7 +6662,7 @@
       <c r="X50"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>37</v>
       </c>
@@ -6675,7 +6679,7 @@
       <c r="X51"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>38</v>
       </c>
@@ -6692,7 +6696,7 @@
       <c r="X52"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
@@ -6709,7 +6713,7 @@
       <c r="X53"/>
       <c r="Y53"/>
     </row>
-    <row r="54" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>40</v>
       </c>
@@ -6726,7 +6730,7 @@
       <c r="X54"/>
       <c r="Y54"/>
     </row>
-    <row r="55" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>41</v>
       </c>
@@ -6743,7 +6747,7 @@
       <c r="X55"/>
       <c r="Y55"/>
     </row>
-    <row r="56" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>42</v>
       </c>
@@ -6760,7 +6764,7 @@
       <c r="X56"/>
       <c r="Y56"/>
     </row>
-    <row r="57" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>43</v>
       </c>
@@ -6777,7 +6781,7 @@
       <c r="X57"/>
       <c r="Y57"/>
     </row>
-    <row r="58" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
@@ -6794,7 +6798,7 @@
       <c r="X58"/>
       <c r="Y58"/>
     </row>
-    <row r="59" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
@@ -6858,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>47</v>
       </c>
@@ -6890,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -6922,7 +6926,7 @@
         <v>2.5512000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>49</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>50</v>
       </c>
@@ -6971,7 +6975,7 @@
       <c r="X64"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>51</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>54</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>55</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>56</v>
       </c>
@@ -7158,7 +7162,7 @@
       <c r="X70"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>0.38069999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>65</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>1.1693</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>137</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>69</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>70</v>
       </c>
@@ -7630,7 +7634,7 @@
       <c r="X84"/>
       <c r="Y84"/>
     </row>
-    <row r="85" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -7817,7 +7821,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -7862,7 +7866,7 @@
         <v>133</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE92">
         <v>8.1216000000000008</v>
@@ -7871,7 +7875,7 @@
         <v>2.4621</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="102" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="102" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>135</v>
       </c>
@@ -7882,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>136</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>2.3386</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>138</v>
       </c>
@@ -7936,13 +7940,6 @@
       <c r="B96" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK95" xr:uid="{BFE1AC0B-A4ED-477C-B4ED-84B826870D67}">
-    <filterColumn colId="30">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>